--- a/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_200/Tests_Estadisticos/dm_comparaciones_Sieve Bootstrap_No_lineal_Estacionario_SETAR.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_200/Tests_Estadisticos/dm_comparaciones_Sieve Bootstrap_No_lineal_Estacionario_SETAR.xlsx
@@ -441,10 +441,10 @@
         <v>40</v>
       </c>
       <c r="C2">
-        <v>0.7142955482688064</v>
+        <v>0.6690309026450687</v>
       </c>
       <c r="D2">
-        <v>0.4751437342286664</v>
+        <v>0.5104361041434156</v>
       </c>
       <c r="E2">
         <v>0.6538714007502926</v>
@@ -467,10 +467,10 @@
         <v>60</v>
       </c>
       <c r="C3">
-        <v>2.02127453403674</v>
+        <v>1.967811484812883</v>
       </c>
       <c r="D3">
-        <v>0.043409756525987</v>
+        <v>0.06182177307170478</v>
       </c>
       <c r="E3">
         <v>0.6538714007502926</v>
@@ -479,7 +479,7 @@
         <v>0.6065029923201362</v>
       </c>
       <c r="G3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H3">
         <v>60</v>
@@ -493,10 +493,10 @@
         <v>100</v>
       </c>
       <c r="C4">
-        <v>0.7665481723089212</v>
+        <v>0.5782936390784065</v>
       </c>
       <c r="D4">
-        <v>0.4434579610906519</v>
+        <v>0.5689390361786382</v>
       </c>
       <c r="E4">
         <v>0.6538714007502926</v>
@@ -519,10 +519,10 @@
         <v>200</v>
       </c>
       <c r="C5">
-        <v>2.487336286027765</v>
+        <v>2.095827268067037</v>
       </c>
       <c r="D5">
-        <v>0.01296680767659875</v>
+        <v>0.04782190839436717</v>
       </c>
       <c r="E5">
         <v>0.6538714007502926</v>
@@ -545,10 +545,10 @@
         <v>60</v>
       </c>
       <c r="C6">
-        <v>1.041974299585621</v>
+        <v>1.048891195603637</v>
       </c>
       <c r="D6">
-        <v>0.2975736027344056</v>
+        <v>0.3056149475113965</v>
       </c>
       <c r="E6">
         <v>0.63394582867184</v>
@@ -571,10 +571,10 @@
         <v>100</v>
       </c>
       <c r="C7">
-        <v>-0.1408479788659993</v>
+        <v>-0.1787734428045338</v>
       </c>
       <c r="D7">
-        <v>0.8880069346663715</v>
+        <v>0.8597517230004268</v>
       </c>
       <c r="E7">
         <v>0.63394582867184</v>
@@ -597,10 +597,10 @@
         <v>200</v>
       </c>
       <c r="C8">
-        <v>1.533558561176516</v>
+        <v>1.467934355533703</v>
       </c>
       <c r="D8">
-        <v>0.125326686544132</v>
+        <v>0.1562747859273512</v>
       </c>
       <c r="E8">
         <v>0.63394582867184</v>
@@ -623,10 +623,10 @@
         <v>100</v>
       </c>
       <c r="C9">
-        <v>-1.386529627832287</v>
+        <v>-1.480458328694501</v>
       </c>
       <c r="D9">
-        <v>0.1657693113219794</v>
+        <v>0.1529308425492046</v>
       </c>
       <c r="E9">
         <v>0.6065029923201362</v>
@@ -649,10 +649,10 @@
         <v>200</v>
       </c>
       <c r="C10">
-        <v>0.2513730726794735</v>
+        <v>0.1818847760516814</v>
       </c>
       <c r="D10">
-        <v>0.8015564455406992</v>
+        <v>0.8573386186330474</v>
       </c>
       <c r="E10">
         <v>0.6065029923201362</v>
@@ -675,10 +675,10 @@
         <v>200</v>
       </c>
       <c r="C11">
-        <v>1.759705632678332</v>
+        <v>1.379923119172511</v>
       </c>
       <c r="D11">
-        <v>0.07863982102163547</v>
+        <v>0.181474198113639</v>
       </c>
       <c r="E11">
         <v>0.6371384827731292</v>
